--- a/Ex_Files_Excel_Managing_and_Analyzing_Data/Exercise Files/Chap 03/03_03/COUNTA.xlsx
+++ b/Ex_Files_Excel_Managing_and_Analyzing_Data/Exercise Files/Chap 03/03_03/COUNTA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10728"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emgarcia/_________Course Production/_______2022/Q3 2022/Excel Managing and Analyzing Data (2022)/2_Project/Exercise Files/Chap 03/03_03/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/georgizaykov/Desktop/Data-Science-Projects/Ex_Files_Excel_Managing_and_Analyzing_Data/Exercise Files/Chap 03/03_03/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C867C9-22C1-704E-9739-25910B4E55E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65AFB1A-A959-1E4B-A24C-F71D5AC3F08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22140" windowHeight="12540" xr2:uid="{DF598E93-3E14-4883-B0D2-857A4826AF64}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{DF598E93-3E14-4883-B0D2-857A4826AF64}"/>
   </bookViews>
   <sheets>
     <sheet name="Incomplete Data" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="983">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="983">
   <si>
     <t>Rolf</t>
   </si>
@@ -2989,7 +2989,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d/mmm/yy"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3050,6 +3053,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3074,11 +3084,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3109,12 +3120,55 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2 2" xfId="1" xr:uid="{0C0D788B-460D-47D4-AC22-1C2FA775835C}"/>
+    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="20">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3337,35 +3391,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -3442,16 +3467,6 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3466,7 +3481,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{90653C06-6146-4683-925F-7660A1F63BB6}" name="Table1" displayName="Table1" ref="B2:G364" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{90653C06-6146-4683-925F-7660A1F63BB6}" name="Table1" displayName="Table1" ref="B2:G364" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="B2:G364" xr:uid="{2B6F0B14-807D-4FC9-AF02-3B694EB7FB57}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3480,20 +3495,22 @@
     <sortCondition ref="B3:B364"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{1806C7A0-DAB7-43B0-AF49-AB87B4D4666D}" name="First Name" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{19370A56-1550-422D-9F69-6307397867F7}" name="Last Name" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{B43D2955-2D2F-4E97-8146-16740073719C}" name="Start Date" dataDxfId="14" dataCellStyle="Normal 2 2"/>
-    <tableColumn id="4" xr3:uid="{17DA00AB-E41C-489B-AF05-0897E622D9CB}" name="Email" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{097024A7-F6FF-4BE9-80B5-37D31BE2F234}" name="ID" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{88B50805-0A6B-4E82-83E3-8671DEF2BA6F}" name="Complete" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{1806C7A0-DAB7-43B0-AF49-AB87B4D4666D}" name="First Name" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{19370A56-1550-422D-9F69-6307397867F7}" name="Last Name" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{B43D2955-2D2F-4E97-8146-16740073719C}" name="Start Date" dataDxfId="15" dataCellStyle="Normal 2 2"/>
+    <tableColumn id="4" xr3:uid="{17DA00AB-E41C-489B-AF05-0897E622D9CB}" name="Email" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{097024A7-F6FF-4BE9-80B5-37D31BE2F234}" name="ID" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{88B50805-0A6B-4E82-83E3-8671DEF2BA6F}" name="Complete" dataDxfId="0">
+      <calculatedColumnFormula>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{665EA340-FF1E-43F6-85F7-3A7676B9F251}" name="Table2" displayName="Table2" ref="B3:J13" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="B3:J13" xr:uid="{665EA340-FF1E-43F6-85F7-3A7676B9F251}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{665EA340-FF1E-43F6-85F7-3A7676B9F251}" name="Table2" displayName="Table2" ref="B3:J14" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="B3:J14" xr:uid="{665EA340-FF1E-43F6-85F7-3A7676B9F251}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -3505,15 +3522,15 @@
     <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{45FAF9CA-371E-4E8B-A20F-84D76301265E}" name="Meeting" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{E98B5F09-872F-48BC-9478-78DA9634730A}" name="Angela" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{4247EB56-7663-44F3-B6C6-D9A56E8092D3}" name="August" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{58BBF2A5-5603-4047-9122-1B26A29B702C}" name="Dot" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{0F8BD02F-30C7-43CC-96A1-58B947BD6448}" name="Elvan" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{D43BB230-B9A8-4D0D-A461-C85C74D5511C}" name="K.J." dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{4CF2DBD7-AB9E-4F96-9848-84F4D4FFAA63}" name="Pippen" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{E859AED0-B97B-4BCB-898A-4993426CEAFE}" name="Ravindra" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{797FADFD-BE81-46D9-B5A5-EA20F07D5644}" name="Wen" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{45FAF9CA-371E-4E8B-A20F-84D76301265E}" name="Meeting" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{E98B5F09-872F-48BC-9478-78DA9634730A}" name="Angela" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{4247EB56-7663-44F3-B6C6-D9A56E8092D3}" name="August" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{58BBF2A5-5603-4047-9122-1B26A29B702C}" name="Dot" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{0F8BD02F-30C7-43CC-96A1-58B947BD6448}" name="Elvan" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{D43BB230-B9A8-4D0D-A461-C85C74D5511C}" name="K.J." dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{4CF2DBD7-AB9E-4F96-9848-84F4D4FFAA63}" name="Pippen" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{E859AED0-B97B-4BCB-898A-4993426CEAFE}" name="Ravindra" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{797FADFD-BE81-46D9-B5A5-EA20F07D5644}" name="Wen" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3797,8 +3814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E06A6D-1BE4-4B61-B9A4-353C0408A13D}">
   <dimension ref="B2:K364"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -3847,10 +3864,17 @@
       <c r="D3" s="8">
         <v>43810</v>
       </c>
+      <c r="G3" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
       <c r="I3" s="14" t="s">
         <v>949</v>
       </c>
-      <c r="J3" s="15"/>
+      <c r="J3" s="15">
+        <f>COUNTA(Table1[First Name])</f>
+        <v>362</v>
+      </c>
       <c r="K3" s="16" t="s">
         <v>950</v>
       </c>
@@ -3871,10 +3895,21 @@
       <c r="F4" s="2" t="s">
         <v>798</v>
       </c>
+      <c r="G4" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
       <c r="I4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="6"/>
+      <c r="J4" s="2">
+        <f>COUNTA(Table1[Start Date])</f>
+        <v>255</v>
+      </c>
+      <c r="K4" s="6">
+        <f>$J$3-J4</f>
+        <v>107</v>
+      </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
@@ -3892,10 +3927,21 @@
       <c r="F5" s="2" t="s">
         <v>795</v>
       </c>
+      <c r="G5" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
       <c r="I5" s="5" t="s">
         <v>781</v>
       </c>
-      <c r="K5" s="6"/>
+      <c r="J5" s="2">
+        <f>COUNTA(Table1[Email])</f>
+        <v>133</v>
+      </c>
+      <c r="K5" s="6">
+        <f t="shared" ref="K5:K6" si="0">$J$3-J5</f>
+        <v>229</v>
+      </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
@@ -3913,10 +3959,21 @@
       <c r="F6" s="2" t="s">
         <v>796</v>
       </c>
+      <c r="G6" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
       <c r="I6" s="5" t="s">
         <v>794</v>
       </c>
-      <c r="K6" s="6"/>
+      <c r="J6" s="2">
+        <f>COUNTA(Table1[ID])</f>
+        <v>159</v>
+      </c>
+      <c r="K6" s="6">
+        <f t="shared" si="0"/>
+        <v>203</v>
+      </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
@@ -3931,6 +3988,14 @@
       <c r="F7" s="2" t="s">
         <v>797</v>
       </c>
+      <c r="G7" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+      <c r="K7" s="2">
+        <f>SUM(K4:K6)</f>
+        <v>539</v>
+      </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
@@ -3948,6 +4013,10 @@
       <c r="F8" s="2" t="s">
         <v>799</v>
       </c>
+      <c r="G8" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
       <c r="I8" s="1" t="s">
         <v>958</v>
       </c>
@@ -3962,7 +4031,14 @@
       <c r="D9" s="8">
         <v>43150</v>
       </c>
-      <c r="I9" s="1"/>
+      <c r="G9" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+      <c r="I9" s="1">
+        <f>COUNTIFS(Table1[Complete],"C")</f>
+        <v>84</v>
+      </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
@@ -3980,6 +4056,10 @@
       <c r="F10" s="2" t="s">
         <v>803</v>
       </c>
+      <c r="G10" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
@@ -3997,6 +4077,10 @@
       <c r="F11" s="2" t="s">
         <v>801</v>
       </c>
+      <c r="G11" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
@@ -4014,6 +4098,10 @@
       <c r="F12" s="2" t="s">
         <v>814</v>
       </c>
+      <c r="G12" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
@@ -4025,6 +4113,10 @@
       <c r="D13" s="8">
         <v>42815</v>
       </c>
+      <c r="G13" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
@@ -4042,6 +4134,10 @@
       <c r="F14" s="2" t="s">
         <v>806</v>
       </c>
+      <c r="G14" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
@@ -4059,6 +4155,10 @@
       <c r="F15" s="2" t="s">
         <v>809</v>
       </c>
+      <c r="G15" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
@@ -4073,8 +4173,12 @@
       <c r="F16" s="2" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>407</v>
       </c>
@@ -4090,8 +4194,12 @@
       <c r="F17" s="2" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
@@ -4101,8 +4209,12 @@
       <c r="D18" s="8">
         <v>39918</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>6</v>
       </c>
@@ -4112,8 +4224,12 @@
       <c r="D19" s="8">
         <v>43339</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>155</v>
       </c>
@@ -4123,8 +4239,12 @@
       <c r="D20" s="8">
         <v>40578</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G20" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>548</v>
       </c>
@@ -4137,8 +4257,12 @@
       <c r="F21" s="2" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G21" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>45</v>
       </c>
@@ -4151,8 +4275,12 @@
       <c r="E22" s="2" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G22" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>13</v>
       </c>
@@ -4162,8 +4290,12 @@
       <c r="D23" s="8">
         <v>42129</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G23" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>40</v>
       </c>
@@ -4179,8 +4311,12 @@
       <c r="F24" s="2" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G24" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>474</v>
       </c>
@@ -4196,8 +4332,12 @@
       <c r="F25" s="2" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G25" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>26</v>
       </c>
@@ -4213,8 +4353,12 @@
       <c r="F26" s="2" t="s">
         <v>959</v>
       </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G26" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>86</v>
       </c>
@@ -4224,8 +4368,12 @@
       <c r="D27" s="8">
         <v>40549</v>
       </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G27" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>76</v>
       </c>
@@ -4238,8 +4386,12 @@
       <c r="E28" s="2" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G28" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>118</v>
       </c>
@@ -4252,8 +4404,12 @@
       <c r="F29" s="2" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G29" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>787</v>
       </c>
@@ -4266,8 +4422,12 @@
       <c r="F30" s="2" t="s">
         <v>960</v>
       </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G30" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>554</v>
       </c>
@@ -4280,8 +4440,12 @@
       <c r="F31" s="2" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G31" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>29</v>
       </c>
@@ -4297,8 +4461,12 @@
       <c r="F32" s="2" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G32" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>482</v>
       </c>
@@ -4314,8 +4482,12 @@
       <c r="F33" s="2" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G33" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>419</v>
       </c>
@@ -4325,8 +4497,12 @@
       <c r="D34" s="8">
         <v>39922</v>
       </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G34" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>0</v>
       </c>
@@ -4342,8 +4518,12 @@
       <c r="F35" s="2" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G35" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>17</v>
       </c>
@@ -4353,8 +4533,12 @@
       <c r="D36" s="8">
         <v>41221</v>
       </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G36" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>442</v>
       </c>
@@ -4367,8 +4551,12 @@
       <c r="E37" s="2" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G37" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>20</v>
       </c>
@@ -4384,8 +4572,12 @@
       <c r="F38" s="2" t="s">
         <v>916</v>
       </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G38" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>47</v>
       </c>
@@ -4401,8 +4593,12 @@
       <c r="F39" s="2" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G39" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
         <v>67</v>
       </c>
@@ -4418,8 +4614,12 @@
       <c r="F40" s="2" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G40" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>521</v>
       </c>
@@ -4432,16 +4632,24 @@
       <c r="F41" s="2" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G41" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
         <v>559</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G42" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
         <v>418</v>
       </c>
@@ -4451,8 +4659,12 @@
       <c r="D43" s="8">
         <v>41911</v>
       </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G43" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
         <v>67</v>
       </c>
@@ -4465,8 +4677,12 @@
       <c r="E44" s="2" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G44" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
         <v>518</v>
       </c>
@@ -4479,8 +4695,12 @@
       <c r="F45" s="2" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G45" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
         <v>98</v>
       </c>
@@ -4496,8 +4716,12 @@
       <c r="F46" s="2" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G46" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
         <v>413</v>
       </c>
@@ -4507,8 +4731,12 @@
       <c r="D47" s="8">
         <v>41735</v>
       </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G47" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
         <v>85</v>
       </c>
@@ -4521,8 +4749,12 @@
       <c r="E48" s="2" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G48" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
         <v>48</v>
       </c>
@@ -4532,16 +4764,24 @@
       <c r="D49" s="8">
         <v>42096</v>
       </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G49" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
         <v>432</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G50" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
         <v>557</v>
       </c>
@@ -4557,8 +4797,12 @@
       <c r="F51" s="2" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G51" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
         <v>94</v>
       </c>
@@ -4571,8 +4815,12 @@
       <c r="E52" s="2" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G52" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
         <v>495</v>
       </c>
@@ -4582,8 +4830,12 @@
       <c r="E53" s="2" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G53" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
         <v>90</v>
       </c>
@@ -4593,16 +4845,24 @@
       <c r="D54" s="8">
         <v>41989</v>
       </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G54" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
         <v>519</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G55" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
         <v>433</v>
       </c>
@@ -4615,8 +4875,12 @@
       <c r="F56" s="2" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G56" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
         <v>450</v>
       </c>
@@ -4629,8 +4893,12 @@
       <c r="F57" s="2" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G57" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
         <v>36</v>
       </c>
@@ -4640,8 +4908,12 @@
       <c r="D58" s="8">
         <v>43408</v>
       </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G58" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
         <v>143</v>
       </c>
@@ -4654,8 +4926,12 @@
       <c r="E59" s="2" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G59" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
         <v>533</v>
       </c>
@@ -4665,8 +4941,12 @@
       <c r="E60" s="2" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G60" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
         <v>11</v>
       </c>
@@ -4679,8 +4959,12 @@
       <c r="F61" s="2" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G61" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
         <v>160</v>
       </c>
@@ -4696,8 +4980,12 @@
       <c r="F62" s="2" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G62" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
         <v>29</v>
       </c>
@@ -4710,8 +4998,12 @@
       <c r="F63" s="2" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G63" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
         <v>144</v>
       </c>
@@ -4724,8 +5016,12 @@
       <c r="F64" s="2" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G64" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
         <v>30</v>
       </c>
@@ -4735,8 +5031,12 @@
       <c r="D65" s="8">
         <v>43323</v>
       </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G65" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
         <v>124</v>
       </c>
@@ -4749,8 +5049,12 @@
       <c r="F66" s="2" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G66" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
         <v>123</v>
       </c>
@@ -4766,8 +5070,12 @@
       <c r="F67" s="2" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G67" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
         <v>110</v>
       </c>
@@ -4783,8 +5091,12 @@
       <c r="F68" s="2" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G68" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
         <v>31</v>
       </c>
@@ -4794,8 +5106,12 @@
       <c r="D69" s="8">
         <v>41801</v>
       </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G69" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B70" s="2" t="s">
         <v>128</v>
       </c>
@@ -4808,8 +5124,12 @@
       <c r="F70" s="2" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G70" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
         <v>120</v>
       </c>
@@ -4825,8 +5145,12 @@
       <c r="F71" s="2" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G71" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B72" s="2" t="s">
         <v>546</v>
       </c>
@@ -4839,16 +5163,24 @@
       <c r="F72" s="2" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G72" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
         <v>459</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G73" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
         <v>112</v>
       </c>
@@ -4858,8 +5190,12 @@
       <c r="D74" s="8">
         <v>41666</v>
       </c>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G74" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B75" s="2" t="s">
         <v>555</v>
       </c>
@@ -4869,8 +5205,12 @@
       <c r="E75" s="2" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G75" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B76" s="2" t="s">
         <v>148</v>
       </c>
@@ -4886,8 +5226,12 @@
       <c r="F76" s="2" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G76" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B77" s="2" t="s">
         <v>70</v>
       </c>
@@ -4903,8 +5247,12 @@
       <c r="F77" s="2" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G77" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B78" s="2" t="s">
         <v>500</v>
       </c>
@@ -4917,16 +5265,24 @@
       <c r="F78" s="2" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G78" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B79" s="2" t="s">
         <v>561</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G79" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B80" s="2" t="s">
         <v>104</v>
       </c>
@@ -4939,8 +5295,12 @@
       <c r="F80" s="2" t="s">
         <v>961</v>
       </c>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G80" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B81" s="2" t="s">
         <v>462</v>
       </c>
@@ -4950,8 +5310,12 @@
       <c r="F81" s="2" t="s">
         <v>962</v>
       </c>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G81" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B82" s="2" t="s">
         <v>108</v>
       </c>
@@ -4961,8 +5325,12 @@
       <c r="D82" s="8">
         <v>41298</v>
       </c>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G82" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B83" s="2" t="s">
         <v>492</v>
       </c>
@@ -4978,8 +5346,12 @@
       <c r="F83" s="2" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G83" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B84" s="2" t="s">
         <v>9</v>
       </c>
@@ -4989,24 +5361,36 @@
       <c r="D84" s="8">
         <v>42556</v>
       </c>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G84" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B85" s="2" t="s">
         <v>543</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G85" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B86" s="2" t="s">
         <v>540</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G86" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B87" s="2" t="s">
         <v>97</v>
       </c>
@@ -5022,8 +5406,12 @@
       <c r="F87" s="2" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G87" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B88" s="2" t="s">
         <v>472</v>
       </c>
@@ -5039,8 +5427,12 @@
       <c r="F88" s="2" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G88" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B89" s="2" t="s">
         <v>475</v>
       </c>
@@ -5056,8 +5448,12 @@
       <c r="F89" s="2" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G89" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B90" s="2" t="s">
         <v>52</v>
       </c>
@@ -5070,8 +5466,12 @@
       <c r="F90" s="2" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G90" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B91" s="2" t="s">
         <v>437</v>
       </c>
@@ -5081,16 +5481,24 @@
       <c r="F91" s="2" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G91" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B92" s="2" t="s">
         <v>506</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G92" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B93" s="2" t="s">
         <v>404</v>
       </c>
@@ -5100,8 +5508,12 @@
       <c r="D93" s="8">
         <v>43497</v>
       </c>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G93" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B94" s="2" t="s">
         <v>10</v>
       </c>
@@ -5111,8 +5523,12 @@
       <c r="D94" s="8">
         <v>43515</v>
       </c>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G94" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B95" s="2" t="s">
         <v>80</v>
       </c>
@@ -5122,8 +5538,12 @@
       <c r="D95" s="8">
         <v>40697</v>
       </c>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G95" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B96" s="2" t="s">
         <v>529</v>
       </c>
@@ -5139,8 +5559,12 @@
       <c r="F96" s="2" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G96" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B97" s="2" t="s">
         <v>53</v>
       </c>
@@ -5156,8 +5580,12 @@
       <c r="F97" s="2" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G97" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B98" s="2" t="s">
         <v>534</v>
       </c>
@@ -5170,8 +5598,12 @@
       <c r="F98" s="2" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G98" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B99" s="2" t="s">
         <v>25</v>
       </c>
@@ -5181,8 +5613,12 @@
       <c r="D99" s="8">
         <v>40095</v>
       </c>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G99" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B100" s="2" t="s">
         <v>152</v>
       </c>
@@ -5192,24 +5628,36 @@
       <c r="D100" s="8">
         <v>41160</v>
       </c>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G100" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B101" s="2" t="s">
         <v>535</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G101" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B102" s="2" t="s">
         <v>522</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G102" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B103" s="2" t="s">
         <v>125</v>
       </c>
@@ -5219,8 +5667,12 @@
       <c r="D103" s="8">
         <v>42712</v>
       </c>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G103" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B104" s="2" t="s">
         <v>399</v>
       </c>
@@ -5236,8 +5688,12 @@
       <c r="F104" s="2" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G104" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B105" s="2" t="s">
         <v>95</v>
       </c>
@@ -5247,8 +5703,12 @@
       <c r="D105" s="8">
         <v>43514</v>
       </c>
-    </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G105" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B106" s="2" t="s">
         <v>66</v>
       </c>
@@ -5258,8 +5718,12 @@
       <c r="D106" s="8">
         <v>42179</v>
       </c>
-    </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G106" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B107" s="2" t="s">
         <v>952</v>
       </c>
@@ -5272,8 +5736,12 @@
       <c r="F107" s="2" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G107" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B108" s="2" t="s">
         <v>410</v>
       </c>
@@ -5283,8 +5751,12 @@
       <c r="D108" s="8">
         <v>41964</v>
       </c>
-    </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G108" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B109" s="2" t="s">
         <v>424</v>
       </c>
@@ -5297,8 +5769,12 @@
       <c r="F109" s="2" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G109" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B110" s="2" t="s">
         <v>12</v>
       </c>
@@ -5308,16 +5784,24 @@
       <c r="D110" s="8">
         <v>41043</v>
       </c>
-    </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G110" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B111" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G111" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B112" s="2" t="s">
         <v>105</v>
       </c>
@@ -5333,8 +5817,12 @@
       <c r="F112" s="2" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G112" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B113" s="2" t="s">
         <v>156</v>
       </c>
@@ -5344,8 +5832,12 @@
       <c r="D113" s="8">
         <v>43591</v>
       </c>
-    </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G113" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B114" s="2" t="s">
         <v>415</v>
       </c>
@@ -5355,8 +5847,12 @@
       <c r="D114" s="8">
         <v>41234</v>
       </c>
-    </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G114" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B115" s="2" t="s">
         <v>24</v>
       </c>
@@ -5372,8 +5868,12 @@
       <c r="F115" s="2" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G115" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B116" s="2" t="s">
         <v>38</v>
       </c>
@@ -5383,16 +5883,24 @@
       <c r="D116" s="8">
         <v>43025</v>
       </c>
-    </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G116" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B117" s="2" t="s">
         <v>469</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G117" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B118" s="2" t="s">
         <v>147</v>
       </c>
@@ -5408,40 +5916,60 @@
       <c r="F118" s="2" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G118" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B119" s="2" t="s">
         <v>145</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G119" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B120" s="2" t="s">
         <v>454</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G120" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B121" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G121" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B122" s="2" t="s">
         <v>538</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G122" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B123" s="2" t="s">
         <v>477</v>
       </c>
@@ -5457,8 +5985,12 @@
       <c r="F123" s="2" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G123" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B124" s="2" t="s">
         <v>22</v>
       </c>
@@ -5468,8 +6000,12 @@
       <c r="D124" s="8">
         <v>42258</v>
       </c>
-    </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G124" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B125" s="2" t="s">
         <v>129</v>
       </c>
@@ -5482,8 +6018,12 @@
       <c r="F125" s="2" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G125" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B126" s="2" t="s">
         <v>5</v>
       </c>
@@ -5493,8 +6033,12 @@
       <c r="D126" s="8">
         <v>43263</v>
       </c>
-    </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G126" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B127" s="2" t="s">
         <v>444</v>
       </c>
@@ -5504,8 +6048,12 @@
       <c r="D127" s="8">
         <v>42458</v>
       </c>
-    </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G127" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B128" s="2" t="s">
         <v>531</v>
       </c>
@@ -5515,16 +6063,24 @@
       <c r="D128" s="8">
         <v>42833</v>
       </c>
-    </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G128" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B129" s="2" t="s">
         <v>467</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G129" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B130" s="2" t="s">
         <v>35</v>
       </c>
@@ -5534,8 +6090,12 @@
       <c r="D130" s="8">
         <v>40698</v>
       </c>
-    </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G130" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B131" s="2" t="s">
         <v>23</v>
       </c>
@@ -5551,8 +6111,12 @@
       <c r="F131" s="2" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G131" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B132" s="2" t="s">
         <v>427</v>
       </c>
@@ -5565,8 +6129,12 @@
       <c r="F132" s="2" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G132" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B133" s="2" t="s">
         <v>141</v>
       </c>
@@ -5576,8 +6144,12 @@
       <c r="D133" s="8">
         <v>40384</v>
       </c>
-    </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G133" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B134" s="2" t="s">
         <v>135</v>
       </c>
@@ -5587,8 +6159,12 @@
       <c r="D134" s="8">
         <v>43230</v>
       </c>
-    </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G134" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B135" s="2" t="s">
         <v>154</v>
       </c>
@@ -5598,8 +6174,12 @@
       <c r="D135" s="8">
         <v>42615</v>
       </c>
-    </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G135" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B136" s="2" t="s">
         <v>563</v>
       </c>
@@ -5609,8 +6189,12 @@
       <c r="D136" s="8">
         <v>39955</v>
       </c>
-    </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G136" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B137" s="2" t="s">
         <v>480</v>
       </c>
@@ -5620,8 +6204,12 @@
       <c r="D137" s="8">
         <v>42667</v>
       </c>
-    </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G137" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B138" s="2" t="s">
         <v>47</v>
       </c>
@@ -5637,8 +6225,12 @@
       <c r="F138" s="2" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G138" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B139" s="2" t="s">
         <v>132</v>
       </c>
@@ -5654,8 +6246,12 @@
       <c r="F139" s="2" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G139" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B140" s="2" t="s">
         <v>443</v>
       </c>
@@ -5671,8 +6267,12 @@
       <c r="F140" s="2" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G140" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B141" s="2" t="s">
         <v>426</v>
       </c>
@@ -5682,8 +6282,12 @@
       <c r="D141" s="8">
         <v>39962</v>
       </c>
-    </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G141" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B142" s="2" t="s">
         <v>431</v>
       </c>
@@ -5693,8 +6297,12 @@
       <c r="E142" s="2" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G142" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B143" s="2" t="s">
         <v>81</v>
       </c>
@@ -5707,8 +6315,12 @@
       <c r="F143" s="2" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G143" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B144" s="2" t="s">
         <v>404</v>
       </c>
@@ -5724,8 +6336,12 @@
       <c r="F144" s="2" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G144" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B145" s="2" t="s">
         <v>481</v>
       </c>
@@ -5741,8 +6357,12 @@
       <c r="F145" s="2" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G145" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B146" s="2" t="s">
         <v>468</v>
       </c>
@@ -5755,16 +6375,24 @@
       <c r="F146" s="2" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G146" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B147" s="2" t="s">
         <v>541</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G147" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B148" s="2" t="s">
         <v>51</v>
       </c>
@@ -5777,8 +6405,12 @@
       <c r="F148" s="2" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G148" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B149" s="2" t="s">
         <v>159</v>
       </c>
@@ -5788,8 +6420,12 @@
       <c r="D149" s="8">
         <v>43294</v>
       </c>
-    </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G149" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B150" s="2" t="s">
         <v>517</v>
       </c>
@@ -5799,8 +6435,12 @@
       <c r="F150" s="2" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G150" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B151" s="2" t="s">
         <v>157</v>
       </c>
@@ -5816,8 +6456,12 @@
       <c r="F151" s="2" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G151" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B152" s="2" t="s">
         <v>542</v>
       </c>
@@ -5827,8 +6471,12 @@
       <c r="D152" s="8">
         <v>41598</v>
       </c>
-    </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G152" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B153" s="2" t="s">
         <v>121</v>
       </c>
@@ -5838,8 +6486,12 @@
       <c r="D153" s="8">
         <v>41421</v>
       </c>
-    </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G153" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B154" s="2" t="s">
         <v>544</v>
       </c>
@@ -5852,8 +6504,12 @@
       <c r="F154" s="2" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G154" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B155" s="2" t="s">
         <v>448</v>
       </c>
@@ -5869,8 +6525,12 @@
       <c r="F155" s="2" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G155" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="156" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B156" s="2" t="s">
         <v>523</v>
       </c>
@@ -5880,8 +6540,12 @@
       <c r="D156" s="8">
         <v>40493</v>
       </c>
-    </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G156" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B157" s="2" t="s">
         <v>412</v>
       </c>
@@ -5897,16 +6561,24 @@
       <c r="F157" s="2" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G157" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="158" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B158" s="2" t="s">
         <v>134</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G158" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B159" s="2" t="s">
         <v>7</v>
       </c>
@@ -5919,8 +6591,12 @@
       <c r="E159" s="2" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G159" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B160" s="2" t="s">
         <v>7</v>
       </c>
@@ -5933,8 +6609,12 @@
       <c r="F160" s="2" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G160" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B161" s="2" t="s">
         <v>466</v>
       </c>
@@ -5947,8 +6627,12 @@
       <c r="E161" s="2" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G161" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B162" s="2" t="s">
         <v>133</v>
       </c>
@@ -5958,8 +6642,12 @@
       <c r="D162" s="8">
         <v>41244</v>
       </c>
-    </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G162" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B163" s="2" t="s">
         <v>458</v>
       </c>
@@ -5969,8 +6657,12 @@
       <c r="D163" s="8">
         <v>41300</v>
       </c>
-    </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G163" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B164" s="2" t="s">
         <v>516</v>
       </c>
@@ -5983,8 +6675,12 @@
       <c r="F164" s="2" t="s">
         <v>877</v>
       </c>
-    </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G164" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B165" s="2" t="s">
         <v>956</v>
       </c>
@@ -5997,8 +6693,12 @@
       <c r="F165" s="2" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G165" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B166" s="2" t="s">
         <v>790</v>
       </c>
@@ -6014,16 +6714,24 @@
       <c r="F166" s="2" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G166" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="167" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B167" s="2" t="s">
         <v>439</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G167" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B168" s="2" t="s">
         <v>463</v>
       </c>
@@ -6033,8 +6741,12 @@
       <c r="E168" s="2" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G168" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B169" s="2" t="s">
         <v>484</v>
       </c>
@@ -6050,8 +6762,12 @@
       <c r="F169" s="2" t="s">
         <v>879</v>
       </c>
-    </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G169" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="170" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B170" s="2" t="s">
         <v>438</v>
       </c>
@@ -6061,8 +6777,12 @@
       <c r="D170" s="8">
         <v>43067</v>
       </c>
-    </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G170" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B171" s="2" t="s">
         <v>146</v>
       </c>
@@ -6078,8 +6798,12 @@
       <c r="F171" s="2" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G171" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="172" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B172" s="2" t="s">
         <v>315</v>
       </c>
@@ -6092,8 +6816,12 @@
       <c r="F172" s="2" t="s">
         <v>974</v>
       </c>
-    </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G172" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B173" s="2" t="s">
         <v>158</v>
       </c>
@@ -6103,8 +6831,12 @@
       <c r="D173" s="8">
         <v>41616</v>
       </c>
-    </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G173" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B174" s="2" t="s">
         <v>117</v>
       </c>
@@ -6114,8 +6846,12 @@
       <c r="D174" s="8">
         <v>42402</v>
       </c>
-    </row>
-    <row r="175" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G174" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B175" s="2" t="s">
         <v>406</v>
       </c>
@@ -6125,8 +6861,12 @@
       <c r="D175" s="8">
         <v>41799</v>
       </c>
-    </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G175" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B176" s="2" t="s">
         <v>136</v>
       </c>
@@ -6136,8 +6876,12 @@
       <c r="D176" s="8">
         <v>40952</v>
       </c>
-    </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G176" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B177" s="2" t="s">
         <v>28</v>
       </c>
@@ -6147,8 +6891,12 @@
       <c r="D177" s="8">
         <v>43648</v>
       </c>
-    </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G177" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B178" s="2" t="s">
         <v>470</v>
       </c>
@@ -6161,8 +6909,12 @@
       <c r="F178" s="2" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G178" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B179" s="2" t="s">
         <v>558</v>
       </c>
@@ -6172,8 +6924,12 @@
       <c r="D179" s="8">
         <v>42342</v>
       </c>
-    </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G179" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B180" s="2" t="s">
         <v>479</v>
       </c>
@@ -6186,8 +6942,12 @@
       <c r="F180" s="2" t="s">
         <v>882</v>
       </c>
-    </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G180" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B181" s="2" t="s">
         <v>82</v>
       </c>
@@ -6197,8 +6957,12 @@
       <c r="D181" s="8">
         <v>42472</v>
       </c>
-    </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G181" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B182" s="2" t="s">
         <v>58</v>
       </c>
@@ -6208,16 +6972,24 @@
       <c r="D182" s="8">
         <v>43139</v>
       </c>
-    </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G182" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B183" s="2" t="s">
         <v>434</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G183" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B184" s="2" t="s">
         <v>520</v>
       </c>
@@ -6230,8 +7002,12 @@
       <c r="F184" s="2" t="s">
         <v>883</v>
       </c>
-    </row>
-    <row r="185" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G184" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B185" s="2" t="s">
         <v>33</v>
       </c>
@@ -6247,8 +7023,12 @@
       <c r="F185" s="2" t="s">
         <v>884</v>
       </c>
-    </row>
-    <row r="186" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G185" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="186" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B186" s="2" t="s">
         <v>513</v>
       </c>
@@ -6258,8 +7038,12 @@
       <c r="F186" s="2" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G186" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B187" s="2" t="s">
         <v>497</v>
       </c>
@@ -6269,8 +7053,12 @@
       <c r="F187" s="2" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="188" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G187" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B188" s="2" t="s">
         <v>149</v>
       </c>
@@ -6286,16 +7074,24 @@
       <c r="F188" s="2" t="s">
         <v>887</v>
       </c>
-    </row>
-    <row r="189" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G188" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="189" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B189" s="2" t="s">
         <v>452</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="190" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G189" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B190" s="2" t="s">
         <v>420</v>
       </c>
@@ -6308,16 +7104,24 @@
       <c r="F190" s="2" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="191" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G190" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B191" s="2" t="s">
         <v>560</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="192" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G191" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B192" s="2" t="s">
         <v>10</v>
       </c>
@@ -6327,8 +7131,12 @@
       <c r="F192" s="2" t="s">
         <v>966</v>
       </c>
-    </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G192" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B193" s="2" t="s">
         <v>565</v>
       </c>
@@ -6338,8 +7146,12 @@
       <c r="D193" s="8">
         <v>39836</v>
       </c>
-    </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G193" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B194" s="2" t="s">
         <v>83</v>
       </c>
@@ -6355,8 +7167,12 @@
       <c r="F194" s="2" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G194" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="195" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B195" s="2" t="s">
         <v>471</v>
       </c>
@@ -6372,24 +7188,36 @@
       <c r="F195" s="2" t="s">
         <v>888</v>
       </c>
-    </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G195" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="196" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B196" s="2" t="s">
         <v>553</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G196" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B197" s="2" t="s">
         <v>457</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G197" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B198" s="2" t="s">
         <v>119</v>
       </c>
@@ -6399,8 +7227,12 @@
       <c r="D198" s="8">
         <v>42902</v>
       </c>
-    </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G198" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B199" s="2" t="s">
         <v>69</v>
       </c>
@@ -6410,8 +7242,12 @@
       <c r="D199" s="8">
         <v>40486</v>
       </c>
-    </row>
-    <row r="200" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G199" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B200" s="2" t="s">
         <v>75</v>
       </c>
@@ -6427,8 +7263,12 @@
       <c r="F200" s="2" t="s">
         <v>895</v>
       </c>
-    </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G200" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="201" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B201" s="2" t="s">
         <v>114</v>
       </c>
@@ -6438,8 +7278,12 @@
       <c r="D201" s="8">
         <v>41653</v>
       </c>
-    </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G201" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B202" s="2" t="s">
         <v>491</v>
       </c>
@@ -6449,8 +7293,12 @@
       <c r="D202" s="8">
         <v>40042</v>
       </c>
-    </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G202" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B203" s="2" t="s">
         <v>79</v>
       </c>
@@ -6460,8 +7308,12 @@
       <c r="D203" s="8">
         <v>40503</v>
       </c>
-    </row>
-    <row r="204" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G203" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B204" s="2" t="s">
         <v>493</v>
       </c>
@@ -6471,8 +7323,12 @@
       <c r="D204" s="8">
         <v>40518</v>
       </c>
-    </row>
-    <row r="205" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G204" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B205" s="2" t="s">
         <v>74</v>
       </c>
@@ -6482,8 +7338,12 @@
       <c r="D205" s="8">
         <v>41610</v>
       </c>
-    </row>
-    <row r="206" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G205" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B206" s="2" t="s">
         <v>423</v>
       </c>
@@ -6493,8 +7353,12 @@
       <c r="D206" s="8">
         <v>43070</v>
       </c>
-    </row>
-    <row r="207" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G206" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B207" s="2" t="s">
         <v>507</v>
       </c>
@@ -6507,24 +7371,36 @@
       <c r="F207" s="2" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="208" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G207" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B208" s="2" t="s">
         <v>500</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G208" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B209" s="2" t="s">
         <v>509</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G209" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B210" s="2" t="s">
         <v>42</v>
       </c>
@@ -6537,8 +7413,12 @@
       <c r="F210" s="2" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G210" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B211" s="2" t="s">
         <v>20</v>
       </c>
@@ -6554,8 +7434,12 @@
       <c r="F211" s="2" t="s">
         <v>898</v>
       </c>
-    </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G211" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="212" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B212" s="2" t="s">
         <v>80</v>
       </c>
@@ -6568,8 +7452,12 @@
       <c r="F212" s="2" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="213" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G212" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B213" s="2" t="s">
         <v>527</v>
       </c>
@@ -6582,8 +7470,12 @@
       <c r="F213" s="2" t="s">
         <v>900</v>
       </c>
-    </row>
-    <row r="214" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G213" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B214" s="2" t="s">
         <v>456</v>
       </c>
@@ -6596,16 +7488,24 @@
       <c r="F214" s="2" t="s">
         <v>901</v>
       </c>
-    </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G214" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B215" s="2" t="s">
         <v>499</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="216" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G215" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B216" s="2" t="s">
         <v>549</v>
       </c>
@@ -6615,8 +7515,12 @@
       <c r="F216" s="2" t="s">
         <v>902</v>
       </c>
-    </row>
-    <row r="217" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G216" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B217" s="2" t="s">
         <v>21</v>
       </c>
@@ -6626,8 +7530,12 @@
       <c r="D217" s="8">
         <v>41703</v>
       </c>
-    </row>
-    <row r="218" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G217" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B218" s="2" t="s">
         <v>103</v>
       </c>
@@ -6643,8 +7551,12 @@
       <c r="F218" s="2" t="s">
         <v>904</v>
       </c>
-    </row>
-    <row r="219" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G218" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="219" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B219" s="2" t="s">
         <v>50</v>
       </c>
@@ -6657,16 +7569,24 @@
       <c r="E219" s="2" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="220" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G219" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B220" s="2" t="s">
         <v>435</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="221" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G220" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B221" s="2" t="s">
         <v>530</v>
       </c>
@@ -6682,8 +7602,12 @@
       <c r="F221" s="2" t="s">
         <v>906</v>
       </c>
-    </row>
-    <row r="222" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G221" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="222" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B222" s="2" t="s">
         <v>140</v>
       </c>
@@ -6696,8 +7620,12 @@
       <c r="F222" s="2" t="s">
         <v>908</v>
       </c>
-    </row>
-    <row r="223" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G222" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B223" s="2" t="s">
         <v>68</v>
       </c>
@@ -6713,8 +7641,12 @@
       <c r="F223" s="2" t="s">
         <v>909</v>
       </c>
-    </row>
-    <row r="224" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G223" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="224" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B224" s="2" t="s">
         <v>99</v>
       </c>
@@ -6730,16 +7662,24 @@
       <c r="F224" s="2" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="225" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G224" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="225" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B225" s="2" t="s">
         <v>510</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="226" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G225" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="226" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B226" s="2" t="s">
         <v>87</v>
       </c>
@@ -6749,8 +7689,12 @@
       <c r="D226" s="8">
         <v>40744</v>
       </c>
-    </row>
-    <row r="227" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G226" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="227" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B227" s="2" t="s">
         <v>485</v>
       </c>
@@ -6766,8 +7710,12 @@
       <c r="F227" s="2" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="228" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G227" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="228" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B228" s="2" t="s">
         <v>467</v>
       </c>
@@ -6777,8 +7725,12 @@
       <c r="D228" s="8">
         <v>39943</v>
       </c>
-    </row>
-    <row r="229" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G228" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="229" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B229" s="2" t="s">
         <v>122</v>
       </c>
@@ -6788,8 +7740,12 @@
       <c r="D229" s="8">
         <v>41219</v>
       </c>
-    </row>
-    <row r="230" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G229" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B230" s="2" t="s">
         <v>138</v>
       </c>
@@ -6802,8 +7758,12 @@
       <c r="F230" s="2" t="s">
         <v>910</v>
       </c>
-    </row>
-    <row r="231" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G230" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B231" s="2" t="s">
         <v>37</v>
       </c>
@@ -6813,8 +7773,12 @@
       <c r="D231" s="8">
         <v>40534</v>
       </c>
-    </row>
-    <row r="232" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G231" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="232" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B232" s="2" t="s">
         <v>536</v>
       </c>
@@ -6824,8 +7788,12 @@
       <c r="F232" s="2" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="233" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G232" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="233" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B233" s="2" t="s">
         <v>403</v>
       </c>
@@ -6835,8 +7803,12 @@
       <c r="D233" s="8">
         <v>40661</v>
       </c>
-    </row>
-    <row r="234" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G233" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B234" s="2" t="s">
         <v>498</v>
       </c>
@@ -6846,8 +7818,12 @@
       <c r="F234" s="2" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="235" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G234" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="235" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B235" s="2" t="s">
         <v>77</v>
       </c>
@@ -6857,8 +7833,12 @@
       <c r="D235" s="8">
         <v>41566</v>
       </c>
-    </row>
-    <row r="236" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G235" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B236" s="2" t="s">
         <v>116</v>
       </c>
@@ -6874,8 +7854,12 @@
       <c r="F236" s="2" t="s">
         <v>912</v>
       </c>
-    </row>
-    <row r="237" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G236" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="237" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B237" s="2" t="s">
         <v>22</v>
       </c>
@@ -6891,8 +7875,12 @@
       <c r="F237" s="2" t="s">
         <v>913</v>
       </c>
-    </row>
-    <row r="238" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G237" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="238" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B238" s="2" t="s">
         <v>14</v>
       </c>
@@ -6908,16 +7896,24 @@
       <c r="F238" s="2" t="s">
         <v>914</v>
       </c>
-    </row>
-    <row r="239" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G238" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="239" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B239" s="2" t="s">
         <v>436</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="240" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G239" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B240" s="2" t="s">
         <v>18</v>
       </c>
@@ -6927,8 +7923,12 @@
       <c r="D240" s="8">
         <v>43420</v>
       </c>
-    </row>
-    <row r="241" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G240" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B241" s="2" t="s">
         <v>32</v>
       </c>
@@ -6938,16 +7938,24 @@
       <c r="D241" s="8">
         <v>39863</v>
       </c>
-    </row>
-    <row r="242" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G241" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="242" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B242" s="2" t="s">
         <v>551</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="243" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G242" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B243" s="2" t="s">
         <v>57</v>
       </c>
@@ -6957,8 +7965,12 @@
       <c r="D243" s="8">
         <v>40151</v>
       </c>
-    </row>
-    <row r="244" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G243" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B244" s="2" t="s">
         <v>73</v>
       </c>
@@ -6968,24 +7980,36 @@
       <c r="D244" s="8">
         <v>42891</v>
       </c>
-    </row>
-    <row r="245" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G244" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B245" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="246" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G245" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B246" s="2" t="s">
         <v>512</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="247" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G246" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B247" s="2" t="s">
         <v>91</v>
       </c>
@@ -7001,8 +8025,12 @@
       <c r="F247" s="2" t="s">
         <v>915</v>
       </c>
-    </row>
-    <row r="248" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G247" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="248" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B248" s="2" t="s">
         <v>528</v>
       </c>
@@ -7012,24 +8040,36 @@
       <c r="D248" s="8">
         <v>40694</v>
       </c>
-    </row>
-    <row r="249" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G248" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B249" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="250" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G249" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="250" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B250" s="2" t="s">
         <v>503</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="251" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G250" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="251" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B251" s="2" t="s">
         <v>479</v>
       </c>
@@ -7039,8 +8079,12 @@
       <c r="D251" s="8">
         <v>42277</v>
       </c>
-    </row>
-    <row r="252" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G251" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="252" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B252" s="2" t="s">
         <v>34</v>
       </c>
@@ -7050,8 +8094,12 @@
       <c r="D252" s="8">
         <v>43000</v>
       </c>
-    </row>
-    <row r="253" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G252" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="253" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B253" s="2" t="s">
         <v>93</v>
       </c>
@@ -7067,8 +8115,12 @@
       <c r="F253" s="2" t="s">
         <v>918</v>
       </c>
-    </row>
-    <row r="254" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G253" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="254" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B254" s="2" t="s">
         <v>142</v>
       </c>
@@ -7084,24 +8136,36 @@
       <c r="F254" s="2" t="s">
         <v>917</v>
       </c>
-    </row>
-    <row r="255" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G254" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="255" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B255" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="256" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G255" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="256" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B256" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="257" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G256" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="257" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B257" s="2" t="s">
         <v>41</v>
       </c>
@@ -7114,8 +8178,12 @@
       <c r="F257" s="2" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="258" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G257" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="258" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B258" s="2" t="s">
         <v>422</v>
       </c>
@@ -7125,8 +8193,12 @@
       <c r="D258" s="8">
         <v>41926</v>
       </c>
-    </row>
-    <row r="259" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G258" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="259" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B259" s="2" t="s">
         <v>101</v>
       </c>
@@ -7136,8 +8208,12 @@
       <c r="D259" s="8">
         <v>42870</v>
       </c>
-    </row>
-    <row r="260" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G259" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="260" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B260" s="2" t="s">
         <v>401</v>
       </c>
@@ -7153,8 +8229,12 @@
       <c r="F260" s="2" t="s">
         <v>919</v>
       </c>
-    </row>
-    <row r="261" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G260" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="261" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B261" s="2" t="s">
         <v>425</v>
       </c>
@@ -7164,8 +8244,12 @@
       <c r="D261" s="8">
         <v>39918</v>
       </c>
-    </row>
-    <row r="262" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G261" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="262" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B262" s="2" t="s">
         <v>446</v>
       </c>
@@ -7178,16 +8262,24 @@
       <c r="F262" s="2" t="s">
         <v>964</v>
       </c>
-    </row>
-    <row r="263" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G262" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="263" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B263" s="2" t="s">
         <v>508</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="264" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G263" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="264" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B264" s="2" t="s">
         <v>539</v>
       </c>
@@ -7197,16 +8289,24 @@
       <c r="F264" s="2" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="265" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G264" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="265" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B265" s="2" t="s">
         <v>460</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="266" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G265" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="266" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B266" s="2" t="s">
         <v>409</v>
       </c>
@@ -7216,8 +8316,12 @@
       <c r="D266" s="8">
         <v>41394</v>
       </c>
-    </row>
-    <row r="267" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G266" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="267" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B267" s="2" t="s">
         <v>127</v>
       </c>
@@ -7227,8 +8331,12 @@
       <c r="D267" s="8">
         <v>43581</v>
       </c>
-    </row>
-    <row r="268" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G267" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="268" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B268" s="2" t="s">
         <v>111</v>
       </c>
@@ -7238,8 +8346,12 @@
       <c r="D268" s="8">
         <v>41421</v>
       </c>
-    </row>
-    <row r="269" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G268" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="269" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B269" s="2" t="s">
         <v>414</v>
       </c>
@@ -7255,8 +8367,12 @@
       <c r="F269" s="2" t="s">
         <v>920</v>
       </c>
-    </row>
-    <row r="270" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G269" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="270" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B270" s="2" t="s">
         <v>430</v>
       </c>
@@ -7272,8 +8388,12 @@
       <c r="F270" s="2" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="271" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G270" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="271" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B271" s="2" t="s">
         <v>447</v>
       </c>
@@ -7283,16 +8403,24 @@
       <c r="D271" s="8">
         <v>43385</v>
       </c>
-    </row>
-    <row r="272" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G271" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="272" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B272" s="2" t="s">
         <v>494</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="273" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G272" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="273" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B273" s="2" t="s">
         <v>113</v>
       </c>
@@ -7305,16 +8433,24 @@
       <c r="F273" s="2" t="s">
         <v>926</v>
       </c>
-    </row>
-    <row r="274" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G273" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="274" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B274" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="275" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G274" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="275" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B275" s="2" t="s">
         <v>62</v>
       </c>
@@ -7324,24 +8460,36 @@
       <c r="D275" s="8">
         <v>41259</v>
       </c>
-    </row>
-    <row r="276" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G275" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="276" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B276" s="2" t="s">
         <v>465</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="277" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G276" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="277" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B277" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="278" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G277" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="278" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B278" s="2" t="s">
         <v>408</v>
       </c>
@@ -7351,8 +8499,12 @@
       <c r="D278" s="8">
         <v>41941</v>
       </c>
-    </row>
-    <row r="279" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G278" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="279" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B279" s="2" t="s">
         <v>496</v>
       </c>
@@ -7368,8 +8520,12 @@
       <c r="F279" s="2" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="280" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G279" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="280" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B280" s="2" t="s">
         <v>473</v>
       </c>
@@ -7379,8 +8535,12 @@
       <c r="D280" s="8">
         <v>40217</v>
       </c>
-    </row>
-    <row r="281" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G280" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="281" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B281" s="2" t="s">
         <v>154</v>
       </c>
@@ -7393,8 +8553,12 @@
       <c r="F281" s="2" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row r="282" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G281" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="282" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B282" s="2" t="s">
         <v>511</v>
       </c>
@@ -7404,8 +8568,12 @@
       <c r="D282" s="8">
         <v>40573</v>
       </c>
-    </row>
-    <row r="283" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G282" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="283" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B283" s="2" t="s">
         <v>136</v>
       </c>
@@ -7415,8 +8583,12 @@
       <c r="F283" s="2" t="s">
         <v>931</v>
       </c>
-    </row>
-    <row r="284" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G283" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="284" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B284" s="2" t="s">
         <v>441</v>
       </c>
@@ -7426,8 +8598,12 @@
       <c r="D284" s="8">
         <v>41127</v>
       </c>
-    </row>
-    <row r="285" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G284" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="285" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B285" s="2" t="s">
         <v>451</v>
       </c>
@@ -7440,16 +8616,24 @@
       <c r="F285" s="2" t="s">
         <v>972</v>
       </c>
-    </row>
-    <row r="286" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G285" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="286" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B286" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="287" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G286" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="287" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B287" s="2" t="s">
         <v>416</v>
       </c>
@@ -7462,8 +8646,12 @@
       <c r="F287" s="2" t="s">
         <v>928</v>
       </c>
-    </row>
-    <row r="288" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G287" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="288" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B288" s="2" t="s">
         <v>137</v>
       </c>
@@ -7476,8 +8664,12 @@
       <c r="F288" s="2" t="s">
         <v>934</v>
       </c>
-    </row>
-    <row r="289" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G288" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="289" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B289" s="2" t="s">
         <v>89</v>
       </c>
@@ -7487,8 +8679,12 @@
       <c r="D289" s="8">
         <v>41725</v>
       </c>
-    </row>
-    <row r="290" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G289" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="290" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B290" s="2" t="s">
         <v>107</v>
       </c>
@@ -7498,8 +8694,12 @@
       <c r="D290" s="8">
         <v>41545</v>
       </c>
-    </row>
-    <row r="291" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G290" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="291" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B291" s="2" t="s">
         <v>126</v>
       </c>
@@ -7509,8 +8709,12 @@
       <c r="D291" s="8">
         <v>42980</v>
       </c>
-    </row>
-    <row r="292" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G291" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="292" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B292" s="2" t="s">
         <v>56</v>
       </c>
@@ -7520,8 +8724,12 @@
       <c r="D292" s="8">
         <v>43150</v>
       </c>
-    </row>
-    <row r="293" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G292" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="293" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B293" s="2" t="s">
         <v>524</v>
       </c>
@@ -7531,8 +8739,12 @@
       <c r="D293" s="8">
         <v>41369</v>
       </c>
-    </row>
-    <row r="294" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G293" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="294" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B294" s="2" t="s">
         <v>461</v>
       </c>
@@ -7545,8 +8757,12 @@
       <c r="F294" s="2" t="s">
         <v>929</v>
       </c>
-    </row>
-    <row r="295" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G294" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="295" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B295" s="2" t="s">
         <v>449</v>
       </c>
@@ -7556,8 +8772,12 @@
       <c r="D295" s="8">
         <v>43139</v>
       </c>
-    </row>
-    <row r="296" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G295" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="296" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B296" s="2" t="s">
         <v>505</v>
       </c>
@@ -7567,8 +8787,12 @@
       <c r="D296" s="8">
         <v>43359</v>
       </c>
-    </row>
-    <row r="297" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G296" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="297" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B297" s="2" t="s">
         <v>27</v>
       </c>
@@ -7581,8 +8805,12 @@
       <c r="E297" s="2" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="298" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G297" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="298" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B298" s="2" t="s">
         <v>63</v>
       </c>
@@ -7598,8 +8826,12 @@
       <c r="F298" s="2" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="299" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G298" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="299" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B299" s="2" t="s">
         <v>84</v>
       </c>
@@ -7612,8 +8844,12 @@
       <c r="F299" s="2" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="300" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G299" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="300" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B300" s="2" t="s">
         <v>476</v>
       </c>
@@ -7623,8 +8859,12 @@
       <c r="D300" s="8">
         <v>40336</v>
       </c>
-    </row>
-    <row r="301" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G300" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="301" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B301" s="2" t="s">
         <v>400</v>
       </c>
@@ -7637,8 +8877,12 @@
       <c r="F301" s="2" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="302" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G301" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="302" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B302" s="2" t="s">
         <v>151</v>
       </c>
@@ -7648,24 +8892,36 @@
       <c r="D302" s="8">
         <v>41681</v>
       </c>
-    </row>
-    <row r="303" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G302" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="303" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B303" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="304" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G303" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="304" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B304" s="2" t="s">
         <v>502</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="305" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G304" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="305" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B305" s="2" t="s">
         <v>4</v>
       </c>
@@ -7675,8 +8931,12 @@
       <c r="D305" s="8">
         <v>43048</v>
       </c>
-    </row>
-    <row r="306" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G305" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="306" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B306" s="2" t="s">
         <v>43</v>
       </c>
@@ -7689,24 +8949,36 @@
       <c r="F306" s="2" t="s">
         <v>924</v>
       </c>
-    </row>
-    <row r="307" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G306" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="307" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B307" s="2" t="s">
         <v>421</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="308" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G307" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="308" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B308" s="2" t="s">
         <v>525</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="309" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G308" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="309" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B309" s="2" t="s">
         <v>78</v>
       </c>
@@ -7716,8 +8988,12 @@
       <c r="D309" s="8">
         <v>40371</v>
       </c>
-    </row>
-    <row r="310" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G309" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="310" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B310" s="2" t="s">
         <v>440</v>
       </c>
@@ -7730,24 +9006,36 @@
       <c r="E310" s="2" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="311" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G310" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="311" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B311" s="2" t="s">
         <v>489</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="312" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G311" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="312" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B312" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="313" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G312" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="313" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B313" s="2" t="s">
         <v>526</v>
       </c>
@@ -7763,8 +9051,12 @@
       <c r="F313" s="2" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="314" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G313" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="314" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B314" s="2" t="s">
         <v>488</v>
       </c>
@@ -7777,8 +9069,12 @@
       <c r="E314" s="2" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="315" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G314" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="315" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B315" s="2" t="s">
         <v>545</v>
       </c>
@@ -7788,16 +9084,24 @@
       <c r="D315" s="8">
         <v>40706</v>
       </c>
-    </row>
-    <row r="316" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G315" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="316" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B316" s="2" t="s">
         <v>153</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="317" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G316" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="317" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B317" s="2" t="s">
         <v>405</v>
       </c>
@@ -7807,8 +9111,12 @@
       <c r="F317" s="2" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="318" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G317" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="318" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B318" s="2" t="s">
         <v>556</v>
       </c>
@@ -7818,8 +9126,12 @@
       <c r="D318" s="8">
         <v>40918</v>
       </c>
-    </row>
-    <row r="319" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G318" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="319" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B319" s="2" t="s">
         <v>119</v>
       </c>
@@ -7829,16 +9141,24 @@
       <c r="D319" s="8">
         <v>43475</v>
       </c>
-    </row>
-    <row r="320" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G319" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="320" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B320" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="321" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G320" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="321" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B321" s="2" t="s">
         <v>102</v>
       </c>
@@ -7848,8 +9168,12 @@
       <c r="D321" s="8">
         <v>43505</v>
       </c>
-    </row>
-    <row r="322" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G321" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="322" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B322" s="2" t="s">
         <v>109</v>
       </c>
@@ -7862,8 +9186,12 @@
       <c r="F322" s="2" t="s">
         <v>932</v>
       </c>
-    </row>
-    <row r="323" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G322" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="323" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B323" s="2" t="s">
         <v>44</v>
       </c>
@@ -7879,8 +9207,12 @@
       <c r="F323" s="2" t="s">
         <v>933</v>
       </c>
-    </row>
-    <row r="324" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G323" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="324" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B324" s="2" t="s">
         <v>139</v>
       </c>
@@ -7896,24 +9228,36 @@
       <c r="F324" s="2" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="325" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G324" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="325" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B325" s="2" t="s">
         <v>566</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="326" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G325" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="326" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B326" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="327" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G326" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="327" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B327" s="2" t="s">
         <v>55</v>
       </c>
@@ -7923,16 +9267,24 @@
       <c r="D327" s="8">
         <v>43073</v>
       </c>
-    </row>
-    <row r="328" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G327" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="328" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B328" s="2" t="s">
         <v>564</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="329" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G328" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="329" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B329" s="2" t="s">
         <v>532</v>
       </c>
@@ -7942,8 +9294,12 @@
       <c r="D329" s="8">
         <v>43457</v>
       </c>
-    </row>
-    <row r="330" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G329" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="330" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B330" s="2" t="s">
         <v>402</v>
       </c>
@@ -7953,8 +9309,12 @@
       <c r="D330" s="8">
         <v>41587</v>
       </c>
-    </row>
-    <row r="331" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G330" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="331" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B331" s="2" t="s">
         <v>514</v>
       </c>
@@ -7964,8 +9324,12 @@
       <c r="D331" s="8">
         <v>41833</v>
       </c>
-    </row>
-    <row r="332" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G331" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="332" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B332" s="2" t="s">
         <v>501</v>
       </c>
@@ -7975,8 +9339,12 @@
       <c r="D332" s="8">
         <v>43288</v>
       </c>
-    </row>
-    <row r="333" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G332" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="333" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B333" s="2" t="s">
         <v>54</v>
       </c>
@@ -7986,8 +9354,12 @@
       <c r="D333" s="8">
         <v>41237</v>
       </c>
-    </row>
-    <row r="334" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G333" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="334" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B334" s="2" t="s">
         <v>547</v>
       </c>
@@ -7997,8 +9369,12 @@
       <c r="D334" s="8">
         <v>40679</v>
       </c>
-    </row>
-    <row r="335" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G334" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="335" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B335" s="2" t="s">
         <v>96</v>
       </c>
@@ -8011,8 +9387,12 @@
       <c r="F335" s="2" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="336" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G335" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="336" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B336" s="2" t="s">
         <v>487</v>
       </c>
@@ -8028,16 +9408,24 @@
       <c r="F336" s="2" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="337" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G336" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="337" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B337" s="2" t="s">
         <v>550</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="338" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G337" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="338" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B338" s="2" t="s">
         <v>478</v>
       </c>
@@ -8047,8 +9435,12 @@
       <c r="D338" s="8">
         <v>42009</v>
       </c>
-    </row>
-    <row r="339" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G338" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="339" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B339" s="2" t="s">
         <v>455</v>
       </c>
@@ -8061,8 +9453,12 @@
       <c r="F339" s="2" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="340" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G339" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="340" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B340" s="2" t="s">
         <v>445</v>
       </c>
@@ -8078,8 +9474,12 @@
       <c r="F340" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="341" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G340" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="341" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B341" s="2" t="s">
         <v>8</v>
       </c>
@@ -8095,8 +9495,12 @@
       <c r="F341" s="2" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="342" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G341" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="342" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B342" s="2" t="s">
         <v>504</v>
       </c>
@@ -8109,8 +9513,12 @@
       <c r="F342" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="343" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G342" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="343" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B343" s="2" t="s">
         <v>428</v>
       </c>
@@ -8120,8 +9528,12 @@
       <c r="D343" s="8">
         <v>42418</v>
       </c>
-    </row>
-    <row r="344" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G343" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="344" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B344" s="2" t="s">
         <v>645</v>
       </c>
@@ -8137,8 +9549,12 @@
       <c r="F344" s="2" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="345" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G344" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="345" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B345" s="2" t="s">
         <v>562</v>
       </c>
@@ -8151,8 +9567,12 @@
       <c r="F345" s="2" t="s">
         <v>892</v>
       </c>
-    </row>
-    <row r="346" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G345" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="346" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B346" s="2" t="s">
         <v>46</v>
       </c>
@@ -8168,8 +9588,12 @@
       <c r="F346" s="2" t="s">
         <v>893</v>
       </c>
-    </row>
-    <row r="347" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G346" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="347" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B347" s="2" t="s">
         <v>13</v>
       </c>
@@ -8185,8 +9609,12 @@
       <c r="F347" s="2" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row r="348" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G347" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="348" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B348" s="2" t="s">
         <v>483</v>
       </c>
@@ -8196,8 +9624,12 @@
       <c r="D348" s="8">
         <v>43197</v>
       </c>
-    </row>
-    <row r="349" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G348" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="349" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B349" s="2" t="s">
         <v>537</v>
       </c>
@@ -8207,8 +9639,12 @@
       <c r="E349" s="2" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="350" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G349" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="350" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B350" s="2" t="s">
         <v>19</v>
       </c>
@@ -8218,24 +9654,36 @@
       <c r="D350" s="8">
         <v>40436</v>
       </c>
-    </row>
-    <row r="351" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G350" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="351" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B351" s="2" t="s">
         <v>552</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="352" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G351" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="352" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B352" s="2" t="s">
         <v>453</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="353" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G352" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="353" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B353" s="2" t="s">
         <v>150</v>
       </c>
@@ -8251,8 +9699,12 @@
       <c r="F353" s="2" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="354" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G353" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="354" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B354" s="2" t="s">
         <v>417</v>
       </c>
@@ -8265,8 +9717,12 @@
       <c r="F354" s="2" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="355" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G354" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="355" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B355" s="2" t="s">
         <v>71</v>
       </c>
@@ -8276,8 +9732,12 @@
       <c r="D355" s="8">
         <v>41069</v>
       </c>
-    </row>
-    <row r="356" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G355" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="356" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B356" s="2" t="s">
         <v>486</v>
       </c>
@@ -8290,8 +9750,12 @@
       <c r="E356" s="2" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="357" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G356" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="357" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B357" s="2" t="s">
         <v>490</v>
       </c>
@@ -8304,16 +9768,24 @@
       <c r="F357" s="2" t="s">
         <v>970</v>
       </c>
-    </row>
-    <row r="358" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G357" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="358" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B358" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="359" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G358" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="359" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B359" s="2" t="s">
         <v>80</v>
       </c>
@@ -8329,8 +9801,12 @@
       <c r="F359" s="2" t="s">
         <v>890</v>
       </c>
-    </row>
-    <row r="360" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G359" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="360" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B360" s="2" t="s">
         <v>464</v>
       </c>
@@ -8340,8 +9816,12 @@
       <c r="D360" s="8">
         <v>41199</v>
       </c>
-    </row>
-    <row r="361" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G360" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="361" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B361" s="2" t="s">
         <v>61</v>
       </c>
@@ -8354,8 +9834,12 @@
       <c r="F361" s="2" t="s">
         <v>971</v>
       </c>
-    </row>
-    <row r="362" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G361" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="362" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B362" s="2" t="s">
         <v>88</v>
       </c>
@@ -8365,8 +9849,12 @@
       <c r="D362" s="8">
         <v>40949</v>
       </c>
-    </row>
-    <row r="363" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G362" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="363" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B363" s="2" t="s">
         <v>49</v>
       </c>
@@ -8382,8 +9870,12 @@
       <c r="F363" s="2" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="364" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G363" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="364" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B364" s="2" t="s">
         <v>515</v>
       </c>
@@ -8395,6 +9887,10 @@
       </c>
       <c r="F364" s="2" t="s">
         <v>936</v>
+      </c>
+      <c r="G364" s="6" t="str">
+        <f>IF(COUNTA(Table1[[#This Row],[Start Date]:[ID]])&lt;3,"","C")</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -8403,7 +9899,7 @@
     <sortCondition ref="B3:B364"/>
   </sortState>
   <conditionalFormatting sqref="F3:F364">
-    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -8417,14 +9913,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02D9D54-110E-49D3-96D0-281571D3D6E4}">
   <dimension ref="B1:M20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.6640625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.83203125" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" style="9" bestFit="1" customWidth="1"/>
@@ -8503,7 +9999,10 @@
       <c r="J4" s="11" t="s">
         <v>943</v>
       </c>
-      <c r="M4" s="12"/>
+      <c r="M4" s="12">
+        <f>COUNTA(Table2[Meeting])*COUNTA(Table2[[#Headers],[Angela]:[Wen]])</f>
+        <v>80</v>
+      </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="10">
@@ -8582,7 +10081,10 @@
       <c r="J7" s="11" t="s">
         <v>943</v>
       </c>
-      <c r="M7" s="13"/>
+      <c r="M7" s="13">
+        <f>COUNTA(Table2[[Angela]:[Wen]])</f>
+        <v>58</v>
+      </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="10">
@@ -8653,7 +10155,10 @@
         <v>943</v>
       </c>
       <c r="J10" s="11"/>
-      <c r="M10" s="13"/>
+      <c r="M10" s="18">
+        <f>M7/M4</f>
+        <v>0.72499999999999998</v>
+      </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="10">
@@ -8723,15 +10228,27 @@
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="B14" s="19">
+        <v>44341</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>943</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>943</v>
+      </c>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
+      <c r="H14" s="11" t="s">
+        <v>943</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>943</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>943</v>
+      </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="10"/>
